--- a/Master/master/Enemy.xlsx
+++ b/Master/master/Enemy.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t xml:space="preserve">$MEMBERS</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t xml:space="preserve">PrefabName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hp</t>
   </si>
   <si>
     <t xml:space="preserve">int</t>
@@ -163,10 +166,10 @@
   <dimension ref="A3:G9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="3.51"/>
@@ -190,36 +193,43 @@
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Master/master/Enemy.xlsx
+++ b/Master/master/Enemy.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t xml:space="preserve">$MEMBERS</t>
   </si>
@@ -37,10 +37,19 @@
     <t xml:space="preserve">Hp</t>
   </si>
   <si>
+    <t xml:space="preserve">SearchRadius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DefaultAIScriptName</t>
+  </si>
+  <si>
     <t xml:space="preserve">int</t>
   </si>
   <si>
     <t xml:space="preserve">string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">float</t>
   </si>
   <si>
     <t xml:space="preserve">$ITEMS</t>
@@ -166,18 +175,17 @@
   <dimension ref="A3:G9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="3.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="3.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.52"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -196,40 +204,54 @@
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>30</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
